--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G644"/>
+  <dimension ref="A1:G645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16551,6 +16551,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="D645" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="E645" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="F645" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="G645" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G645"/>
+  <dimension ref="A1:G646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16576,6 +16576,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="D646" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="E646" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="F646" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="G646" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G646"/>
+  <dimension ref="A1:G647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16601,6 +16601,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="D647" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="E647" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="F647" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="G647" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G647"/>
+  <dimension ref="A1:G649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16626,6 +16626,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="D648" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="E648" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="F648" t="n">
+        <v>732828500000000</v>
+      </c>
+      <c r="G648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="D649" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="E649" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="F649" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="G649" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G649"/>
+  <dimension ref="A1:G650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16676,6 +16676,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="D650" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="E650" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="F650" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="G650" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G650"/>
+  <dimension ref="A1:G653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16701,6 +16701,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="D651" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="E651" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="F651" t="n">
+        <v>741614200000000</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>748537600000000</v>
+      </c>
+      <c r="D652" t="n">
+        <v>748537600000000</v>
+      </c>
+      <c r="E652" t="n">
+        <v>748537600000000</v>
+      </c>
+      <c r="F652" t="n">
+        <v>748537600000000</v>
+      </c>
+      <c r="G652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="D653" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="E653" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="F653" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="G653" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G653"/>
+  <dimension ref="A1:G654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16776,6 +16776,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="D654" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="E654" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="F654" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="G654" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G654"/>
+  <dimension ref="A1:G656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16801,6 +16801,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B655" t="inlineStr"/>
+      <c r="C655" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="D655" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="E655" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="F655" t="n">
+        <v>740783400000000</v>
+      </c>
+      <c r="G655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="n">
+        <v>750650200000000</v>
+      </c>
+      <c r="D656" t="n">
+        <v>750650200000000</v>
+      </c>
+      <c r="E656" t="n">
+        <v>750650200000000</v>
+      </c>
+      <c r="F656" t="n">
+        <v>750650200000000</v>
+      </c>
+      <c r="G656" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G659"/>
+  <dimension ref="A1:G660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15545,6 +15545,9 @@
       <c r="A659" s="2">
         <v>45230</v>
       </c>
+      <c r="B659" t="s">
+        <v>7</v>
+      </c>
       <c r="C659">
         <v>750650200000000</v>
       </c>
@@ -15558,6 +15561,26 @@
         <v>750650200000000</v>
       </c>
       <c r="G659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7">
+      <c r="A660" s="2">
+        <v>45230</v>
+      </c>
+      <c r="C660">
+        <v>750650200000000</v>
+      </c>
+      <c r="D660">
+        <v>750650200000000</v>
+      </c>
+      <c r="E660">
+        <v>750650200000000</v>
+      </c>
+      <c r="F660">
+        <v>750650200000000</v>
+      </c>
+      <c r="G660">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G660"/>
+  <dimension ref="A1:G664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15568,6 +15568,9 @@
       <c r="A660" s="2">
         <v>45230</v>
       </c>
+      <c r="B660" t="s">
+        <v>7</v>
+      </c>
       <c r="C660">
         <v>750650200000000</v>
       </c>
@@ -15581,6 +15584,95 @@
         <v>750650200000000</v>
       </c>
       <c r="G660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7">
+      <c r="A661" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B661" t="s">
+        <v>7</v>
+      </c>
+      <c r="C661">
+        <v>750650200000000</v>
+      </c>
+      <c r="D661">
+        <v>750650200000000</v>
+      </c>
+      <c r="E661">
+        <v>750650200000000</v>
+      </c>
+      <c r="F661">
+        <v>750650200000000</v>
+      </c>
+      <c r="G661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7">
+      <c r="A662" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B662" t="s">
+        <v>7</v>
+      </c>
+      <c r="C662">
+        <v>750650200000000</v>
+      </c>
+      <c r="D662">
+        <v>750650200000000</v>
+      </c>
+      <c r="E662">
+        <v>750650200000000</v>
+      </c>
+      <c r="F662">
+        <v>750650200000000</v>
+      </c>
+      <c r="G662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7">
+      <c r="A663" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B663" t="s">
+        <v>7</v>
+      </c>
+      <c r="C663">
+        <v>750650200000000</v>
+      </c>
+      <c r="D663">
+        <v>750650200000000</v>
+      </c>
+      <c r="E663">
+        <v>750650200000000</v>
+      </c>
+      <c r="F663">
+        <v>750650200000000</v>
+      </c>
+      <c r="G663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7">
+      <c r="A664" s="2">
+        <v>45230</v>
+      </c>
+      <c r="C664">
+        <v>750650200000000</v>
+      </c>
+      <c r="D664">
+        <v>750650200000000</v>
+      </c>
+      <c r="E664">
+        <v>750650200000000</v>
+      </c>
+      <c r="F664">
+        <v>750650200000000</v>
+      </c>
+      <c r="G664">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G666"/>
+  <dimension ref="A1:G667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17055,7 +17055,11 @@
       <c r="A665" s="2" t="n">
         <v>45230</v>
       </c>
-      <c r="B665" t="inlineStr"/>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
       <c r="C665" t="n">
         <v>750650200000000</v>
       </c>
@@ -17076,7 +17080,11 @@
       <c r="A666" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="B666" t="inlineStr"/>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
       <c r="C666" t="n">
         <v>755780500000000</v>
       </c>
@@ -17090,6 +17098,27 @@
         <v>755780500000000</v>
       </c>
       <c r="G666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="n">
+        <v>755780500000000</v>
+      </c>
+      <c r="D667" t="n">
+        <v>755780500000000</v>
+      </c>
+      <c r="E667" t="n">
+        <v>755780500000000</v>
+      </c>
+      <c r="F667" t="n">
+        <v>755780500000000</v>
+      </c>
+      <c r="G667" t="n">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/JPCBBS.xlsx
+++ b/GlobalReserves/BalSheets/JPCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G667"/>
+  <dimension ref="A1:G669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17105,7 +17105,11 @@
       <c r="A667" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="B667" t="inlineStr"/>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>ECONOMICS:JPCBBS</t>
+        </is>
+      </c>
       <c r="C667" t="n">
         <v>755780500000000</v>
       </c>
@@ -17119,6 +17123,48 @@
         <v>755780500000000</v>
       </c>
       <c r="G667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B668" t="inlineStr"/>
+      <c r="C668" t="n">
+        <v>755780500000000</v>
+      </c>
+      <c r="D668" t="n">
+        <v>755780500000000</v>
+      </c>
+      <c r="E668" t="n">
+        <v>755780500000000</v>
+      </c>
+      <c r="F668" t="n">
+        <v>755780500000000</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="n">
+        <v>749963200000000</v>
+      </c>
+      <c r="D669" t="n">
+        <v>749963200000000</v>
+      </c>
+      <c r="E669" t="n">
+        <v>749963200000000</v>
+      </c>
+      <c r="F669" t="n">
+        <v>749963200000000</v>
+      </c>
+      <c r="G669" t="n">
         <v>0</v>
       </c>
     </row>
